--- a/Oro_Loma.xlsx
+++ b/Oro_Loma.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB430C4F-E72A-4E4B-BFBA-9A84E7E1032B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD5E787-FB49-48D8-BD9A-AD4F243A66B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Compartment</t>
   </si>
@@ -56,9 +57,6 @@
     <t>SubSoil</t>
   </si>
   <si>
-    <t>Veg</t>
-  </si>
-  <si>
     <t>Topsoil</t>
   </si>
   <si>
@@ -72,15 +70,43 @@
   </si>
   <si>
     <t>FrnAir</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>cond</t>
+  </si>
+  <si>
+    <t>FrnPart</t>
+  </si>
+  <si>
+    <t>PartDensity</t>
+  </si>
+  <si>
+    <t>Advection</t>
+  </si>
+  <si>
+    <t>RootBody</t>
+  </si>
+  <si>
+    <t>RootXylem</t>
+  </si>
+  <si>
+    <t>RootCyl</t>
+  </si>
+  <si>
+    <t>Shoots</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -560,12 +586,15 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -923,24 +952,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -955,30 +986,46 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>14</v>
       </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2" s="5">
+        <v>11.5824</v>
+      </c>
+      <c r="C2" s="5">
+        <f>0.1524*2</f>
+        <v>0.30480000000000002</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>45.72</v>
       </c>
       <c r="E2">
         <v>1000</v>
@@ -986,22 +1033,45 @@
       <c r="F2">
         <v>22</v>
       </c>
+      <c r="G2" s="3">
+        <f>1-M2</f>
+        <v>0.99999400000000005</v>
+      </c>
       <c r="H2">
         <v>0.4</v>
       </c>
+      <c r="I2">
+        <v>0.1</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
+      </c>
+      <c r="L2">
+        <v>2000</v>
+      </c>
+      <c r="M2" s="3">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="N2">
+        <v>2605</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3" s="5">
+        <v>11.5824</v>
+      </c>
+      <c r="C3" s="5">
+        <f>0.1524*2</f>
+        <v>0.30480000000000002</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>45.72</v>
       </c>
       <c r="E3">
         <v>2605</v>
@@ -1009,22 +1079,43 @@
       <c r="F3">
         <v>17</v>
       </c>
+      <c r="G3">
+        <v>0.31000000000000005</v>
+      </c>
       <c r="H3">
         <v>0.6</v>
       </c>
+      <c r="I3">
+        <v>0.05</v>
+      </c>
+      <c r="K3">
+        <v>5.5</v>
+      </c>
+      <c r="L3">
+        <v>2000</v>
+      </c>
+      <c r="M3">
+        <v>0.6</v>
+      </c>
+      <c r="N3">
+        <v>2605</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
+        <v>11.5824</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>30</v>
+        <v>45.72</v>
       </c>
       <c r="E4">
         <v>850</v>
@@ -1033,30 +1124,44 @@
         <v>17</v>
       </c>
       <c r="G4">
-        <v>0.8</v>
+        <v>0.94199999999999995</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="J4">
-        <v>0.18</v>
+        <f>1-(I4+G4)</f>
+        <v>3.8000000000000034E-2</v>
+      </c>
+      <c r="K4">
+        <v>5.5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4" si="0">0.5/(0.000016)</f>
+        <v>31250</v>
+      </c>
+      <c r="N4">
+        <v>1000</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B5" s="5">
+        <v>11.5824</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.60960000000000003</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>45.72</v>
       </c>
       <c r="E5">
         <v>2605</v>
@@ -1065,7 +1170,7 @@
         <v>17</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H5" s="2">
         <v>0.3</v>
@@ -1073,31 +1178,194 @@
       <c r="I5">
         <v>0.1</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>5.5</v>
+      </c>
+      <c r="L5">
+        <v>2000</v>
+      </c>
+      <c r="N5">
+        <v>2605</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="5">
+        <v>11.5824</v>
+      </c>
+      <c r="C6" s="5">
         <v>50</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>45.72</v>
       </c>
       <c r="F6">
         <v>17</v>
       </c>
+      <c r="G6" s="4">
+        <f>3*0.000001</f>
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="I6">
+        <v>0.1</v>
+      </c>
+      <c r="K6">
+        <v>5.6</v>
+      </c>
+      <c r="L6">
+        <v>3000</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1.9999999999999999E-11</v>
+      </c>
+      <c r="N6">
+        <v>2605</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="5">
+        <v>11.5824</v>
+      </c>
+      <c r="C7">
+        <v>0.6</v>
+      </c>
+      <c r="D7">
+        <v>45.72</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
+        <v>17</v>
+      </c>
+      <c r="G7">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="I7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>6.5</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L8" si="1">0.5/(0.000016)</f>
+        <v>31250</v>
+      </c>
+      <c r="N7">
+        <v>1000</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="5">
+        <v>11.5824</v>
+      </c>
+      <c r="C8">
+        <v>0.6</v>
+      </c>
+      <c r="D8">
+        <v>45.72</v>
+      </c>
+      <c r="E8">
+        <v>1000</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="I8">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>5.5</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>31250</v>
+      </c>
+      <c r="N8">
+        <v>1000</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5">
+        <v>11.5824</v>
+      </c>
+      <c r="C9">
+        <v>0.6</v>
+      </c>
+      <c r="D9">
+        <v>45.72</v>
+      </c>
+      <c r="E9">
+        <v>1000</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0.05</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>5.5</v>
+      </c>
+      <c r="L9">
+        <f>0.5/(0.000016)</f>
+        <v>31250</v>
+      </c>
+      <c r="N9">
+        <v>1000</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Oro_Loma.xlsx
+++ b/Oro_Loma.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Tim Rodgers\Documents\GitHub\BioretentionBlues\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DD5E787-FB49-48D8-BD9A-AD4F243A66B8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A221F89-5B93-4215-90E4-DD0F666AC6A8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25320" yWindow="435" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BCSUMM" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -540,6 +540,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -586,7 +606,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -595,6 +615,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -955,65 +978,65 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1059,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1104,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1150,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1194,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1234,7 +1257,7 @@
       </c>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1276,7 +1299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1318,52 +1341,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="8">
         <v>11.5824</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>0.6</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>45.72</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>1000</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="6">
         <v>17</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="6">
         <v>0.94199999999999995</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="6">
         <v>1</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="6">
         <v>0.05</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="6">
         <v>0</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="6">
         <v>5.5</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="6">
         <f>0.5/(0.000016)</f>
         <v>31250</v>
       </c>
-      <c r="N9">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6">
         <v>1000</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
